--- a/elo_analysis.xlsx
+++ b/elo_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Desktop\spring23\work dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Documents\GitHub\Data-Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F924D32-5B93-4264-9244-9EB0DE34658A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3095B32-DC5B-41FC-A864-DBF346E6CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1035" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,64 +22,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>(-1621.896, -1423.25]</t>
-  </si>
-  <si>
-    <t>(-1423.25, -1228.5]</t>
-  </si>
-  <si>
-    <t>(-1228.5, -1033.75]</t>
-  </si>
-  <si>
-    <t>(-1033.75, -839.0]</t>
-  </si>
-  <si>
-    <t>(-839.0, -644.25]</t>
-  </si>
-  <si>
-    <t>(-644.25, -449.5]</t>
-  </si>
-  <si>
-    <t>(-449.5, -254.75]</t>
-  </si>
-  <si>
-    <t>(-254.75, -60.0]</t>
-  </si>
-  <si>
-    <t>(-60.0, 134.75]</t>
-  </si>
-  <si>
-    <t>(134.75, 329.5]</t>
-  </si>
-  <si>
-    <t>(329.5, 524.25]</t>
-  </si>
-  <si>
-    <t>(524.25, 719.0]</t>
-  </si>
-  <si>
-    <t>(719.0, 913.75]</t>
-  </si>
-  <si>
-    <t>(913.75, 1108.5]</t>
-  </si>
-  <si>
-    <t>(1108.5, 1303.25]</t>
-  </si>
-  <si>
-    <t>(1303.25, 1498.0]</t>
-  </si>
-  <si>
-    <t>(1498.0, 1692.75]</t>
-  </si>
-  <si>
-    <t>(1692.75, 1887.5]</t>
-  </si>
-  <si>
-    <t>(1887.5, 2082.25]</t>
-  </si>
-  <si>
-    <t>(2082.25, 2277.0]</t>
+    <t>(-1621, -1423]</t>
+  </si>
+  <si>
+    <t>(-1423, -1228]</t>
+  </si>
+  <si>
+    <t>(-1228, -1033]</t>
+  </si>
+  <si>
+    <t>(-1033, -839]</t>
+  </si>
+  <si>
+    <t>(-839, -644]</t>
+  </si>
+  <si>
+    <t>(-644, -449]</t>
+  </si>
+  <si>
+    <t>(-449, -254]</t>
+  </si>
+  <si>
+    <t>(-254, -60]</t>
+  </si>
+  <si>
+    <t>(-60, 134]</t>
+  </si>
+  <si>
+    <t>(134, 329]</t>
+  </si>
+  <si>
+    <t>(329, 524]</t>
+  </si>
+  <si>
+    <t>(524, 719]</t>
+  </si>
+  <si>
+    <t>(719, 913]</t>
+  </si>
+  <si>
+    <t>(913, 1108]</t>
+  </si>
+  <si>
+    <t>(1108, 1303]</t>
+  </si>
+  <si>
+    <t>(1303, 1498]</t>
+  </si>
+  <si>
+    <t>(1498, 1692]</t>
+  </si>
+  <si>
+    <t>(1692, 1887]</t>
+  </si>
+  <si>
+    <t>(1887, 2082]</t>
+  </si>
+  <si>
+    <t>(2082, 2277]</t>
   </si>
 </sst>
 </file>
@@ -263,64 +263,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>(-1621.896, -1423.25]</c:v>
+                  <c:v>(-1621, -1423]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>(-1423.25, -1228.5]</c:v>
+                  <c:v>(-1423, -1228]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>(-1228.5, -1033.75]</c:v>
+                  <c:v>(-1228, -1033]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>(-1033.75, -839.0]</c:v>
+                  <c:v>(-1033, -839]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(-839.0, -644.25]</c:v>
+                  <c:v>(-839, -644]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>(-644.25, -449.5]</c:v>
+                  <c:v>(-644, -449]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>(-449.5, -254.75]</c:v>
+                  <c:v>(-449, -254]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(-254.75, -60.0]</c:v>
+                  <c:v>(-254, -60]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>(-60.0, 134.75]</c:v>
+                  <c:v>(-60, 134]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>(134.75, 329.5]</c:v>
+                  <c:v>(134, 329]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>(329.5, 524.25]</c:v>
+                  <c:v>(329, 524]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>(524.25, 719.0]</c:v>
+                  <c:v>(524, 719]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>(719.0, 913.75]</c:v>
+                  <c:v>(719, 913]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>(913.75, 1108.5]</c:v>
+                  <c:v>(913, 1108]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(1108.5, 1303.25]</c:v>
+                  <c:v>(1108, 1303]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>(1303.25, 1498.0]</c:v>
+                  <c:v>(1303, 1498]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>(1498.0, 1692.75]</c:v>
+                  <c:v>(1498, 1692]</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>(1692.75, 1887.5]</c:v>
+                  <c:v>(1692, 1887]</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>(1887.5, 2082.25]</c:v>
+                  <c:v>(1887, 2082]</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>(2082.25, 2277.0]</c:v>
+                  <c:v>(2082, 2277]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -420,6 +420,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>intervallo di differenza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> ELO (ELO vincitore - ELO sconfitto)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -485,6 +545,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di vittorie</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1112,16 +1246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>358587</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12324</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>761998</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1150,9 +1284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1190,9 +1324,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,26 +1359,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,26 +1394,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1473,7 +1573,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elo_analysis.xlsx
+++ b/elo_analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tello\Documents\GitHub\Data-Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3095B32-DC5B-41FC-A864-DBF346E6CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2F505-23B1-43FA-A9C1-448F195E599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1035" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="1380" windowWidth="18585" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -195,7 +195,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>numero</a:t>
+              <a:t>Numero</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
